--- a/Test_report_for_employee.xlsx
+++ b/Test_report_for_employee.xlsx
@@ -1,14 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="TR-login-05-08-2021,20-32-24" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TR-login-05-08-2021,20-32-24" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TR-employee-05-09-2021,12" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TR-employee-05-09-2021,13" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TR-employee-05-09-2021,131" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
@@ -642,7 +645,7 @@
           <t>3. Click Login</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr">
         <is>
           <t>Click Login Button</t>
         </is>
@@ -651,4 +654,666 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A3:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Test Case Description</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Test Steps</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>Test Data</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>TC_Emp_001_1</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Check whether the Employee Creation is done successfully with valid data</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>Naveen</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>Employee should be created successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Management / Human Resource</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>TC_Emp_002_1</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check whether the Employee Creation is unsuccessful by leaving employee_name empty </t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>Employee_name should be highlighted in red</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>Management / Human Resource</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A3:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Test Case Description</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Test Steps</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>Test Data</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>TC_Emp_001_1</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Check whether the Employee Creation is done successfully with valid data</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>Naveen</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>Employee should be created successfully</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">employee added successfully </t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Management / Human Resource</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>TC_Emp_002_1</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check whether the Employee Creation is unsuccessful by leaving employee_name empty </t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>Employee_name should be highlighted in red</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>Error while adding employee</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>Management / Human Resource</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/Test_report_for_employee.xlsx
+++ b/Test_report_for_employee.xlsx
@@ -1,17 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TR-login-05-08-2021,20-32-24" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TR-employee-05-09-2021,12" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TR-employee-05-09-2021,13" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TR-employee-05-09-2021,131" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TR-login-05-08-2021,20-32-24" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TR-employee-05-09-2021,12" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TR-employee-05-09-2021,13" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="TR-employee-05-09-2021,131" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="TR-employee-05-15-2021,07" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="TR-department-05-16-2021,09" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="TR-department-05-16-2021,091" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="TR-department-05-16-2021,092" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="TR-department-05-16-2021,093" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TR-department-05-16-2021,094" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TR-department-05-16-2021,095" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
@@ -469,6 +476,60 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1316,4 +1377,524 @@
   <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A3:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Test Case Description</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Test Steps</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>Test Data</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>TC_Emp_001_1</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Check whether the Employee Creation is done successfully with valid data</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>Naveen</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>Employee should be created successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Management / Human Resource</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>TC_Emp_002_1</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check whether the Employee Creation is unsuccessful by leaving employee_name empty </t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>Employee_name should be highlighted in red</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>Management / Human Resource</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A3:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Test Case Description</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Test Steps</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>Test Data</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>TC_Dept_001_1</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Check whether the Department Creation is done successfully with valid data</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>1. Enter dept_name</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>Human Resource</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>Department should be created successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>2. Select parent_dept_name</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>3. Select manager_name</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>Roger Scott</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>4. Click on Save</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>TC_Dept_002_1</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check whether the Department Creation is unsuccessful by leaving dept_name empty </t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>1. Enter dept_name</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     </t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>Department_name field should be highlighted in red</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>2. Select parent_dept_name</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>3. Select manager_name</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Roger Scott</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>4. Click on Save</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/Test_report_for_employee.xlsx
+++ b/Test_report_for_employee.xlsx
@@ -4,21 +4,33 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="TR-login-05-08-2021,20-32-24" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="TR-employee-05-09-2021,12" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TR-employee-05-09-2021,13" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="TR-employee-05-09-2021,131" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="TR-employee-05-15-2021,07" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="TR-department-05-16-2021,09" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="TR-department-05-16-2021,091" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="TR-department-05-16-2021,092" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="TR-department-05-16-2021,093" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="TR-department-05-16-2021,094" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="TR-department-05-16-2021,095" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TR-employee-05-09-2021,13" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TR-employee-05-09-2021,131" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TR-employee-05-15-2021,07" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="TR-department-05-16-2021,09" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="TR-department-05-16-2021,091" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="TR-department-05-16-2021,092" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="TR-department-05-16-2021,093" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="TR-department-05-16-2021,094" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="TR-department-05-16-2021,095" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TR-employee-05-16-2021,22-00-51" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="TR-employee-05-16-2021,22-08-19" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="TR-employee-05-16-2021,22-11-13" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="TR-employee-05-16-2021,22-14-41" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="TR-employee-05-16-2021,22-17-42" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="TR-employee-05-16-2021,22-43" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="TR-department-05-16-2021,22-54" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="TR-department-05-16-2021,22-56" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="TR-department-05-16-2021,23-05" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="TR-department-05-16-2021,23-15" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="TR-department-05-16-2021,23-18" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="TR-department-05-16-2021,23-24" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="TR-department-05-16-2021,23-31" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="TR-employee-05-16-2021,23-35" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
@@ -80,7 +92,14 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -456,11 +475,11 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" outlineLevelRow="0" zeroHeight="0"/>
   <sheetData/>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
@@ -478,65 +497,3373 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A3:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetData>
+    <row customHeight="1" ht="15" r="3" s="2">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case Description</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Test Steps</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Test Data</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="2">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TC_Emp_001_1</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Check whether the Employee Creation is done successfully with valid data</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Naveen</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Employee should be created successfully</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="2">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6" s="2">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="2">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8" s="2">
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" s="2">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="2">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Management / Human Resource</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11" s="2">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="12" s="2">
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="13" s="2">
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="14" s="2">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>TC_Emp_002_1</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check whether the Employee Creation is unsuccessful by leaving employee_name empty </t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>Employee_name should be highlighted in red</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="15" s="2">
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="16" s="2">
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="17" s="2">
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="18" s="2">
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="19" s="2">
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="20" s="2">
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Management / Human Resource</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="21" s="2">
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="22" s="2">
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="23" s="2">
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A3:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetData>
+    <row customHeight="1" ht="15" r="3" s="2">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case Description</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Test Steps</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Test Data</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="2">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TC_Emp_001_1</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Check whether the Employee Creation is done successfully with valid data</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Naveen</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Employee should be created successfully</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="2">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6" s="2">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="2">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8" s="2">
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" s="2">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="2">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11" s="2">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="12" s="2">
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="13" s="2">
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="14" s="2">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>TC_Emp_002_1</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check whether the Employee Creation is unsuccessful by leaving employee_name empty </t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>Employee_name should be highlighted in red</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="15" s="2">
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="16" s="2">
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="17" s="2">
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="18" s="2">
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="19" s="2">
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="20" s="2">
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="21" s="2">
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="22" s="2">
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="23" s="2">
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A3:G23"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetData>
+    <row customHeight="1" ht="15" r="3" s="2">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case Description</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Test Steps</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Test Data</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="2">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TC_Emp_001_1</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Check whether the Employee Creation is done successfully with valid data</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Naveen</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Employee should be created successfully</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="2">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6" s="2">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="2">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8" s="2">
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" s="2">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="2">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11" s="2">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="12" s="2">
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="13" s="2">
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="14" s="2">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>TC_Emp_002_1</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check whether the Employee Creation is unsuccessful by leaving employee_name empty </t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>Employee_name should be highlighted in red</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="15" s="2">
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="16" s="2">
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="17" s="2">
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="18" s="2">
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="19" s="2">
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="20" s="2">
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="21" s="2">
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="22" s="2">
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="23" s="2">
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A3:G23"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetData>
+    <row customHeight="1" ht="15" r="3" s="2">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case Description</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Test Steps</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Test Data</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="2">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TC_Emp_001_1</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Check whether the Employee Creation is done successfully with valid data</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Naveen</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Employee should be created successfully</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="2">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6" s="2">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="2">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8" s="2">
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" s="2">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="2">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11" s="2">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="12" s="2">
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="13" s="2">
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="14" s="2">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>TC_Emp_002_1</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check whether the Employee Creation is unsuccessful by leaving employee_name empty </t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>Employee_name should be highlighted in red</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="15" s="2">
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="16" s="2">
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="17" s="2">
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="18" s="2">
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="19" s="2">
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="20" s="2">
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="21" s="2">
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="22" s="2">
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="23" s="2">
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A3:G23"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetData>
+    <row customHeight="1" ht="15" r="3" s="2">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case Description</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Test Steps</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Test Data</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="2">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TC_Emp_001_1</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Check whether the Employee Creation is done successfully with valid data</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Naveen</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Employee should be created successfully</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="2">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6" s="2">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="2">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8" s="2">
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" s="2">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="2">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11" s="2">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="12" s="2">
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="13" s="2">
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="14" s="2">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>TC_Emp_002_1</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check whether the Employee Creation is unsuccessful by leaving employee_name empty </t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>Employee_name should be highlighted in red</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="15" s="2">
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="16" s="2">
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="17" s="2">
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="18" s="2">
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="19" s="2">
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="20" s="2">
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="21" s="2">
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="22" s="2">
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="23" s="2">
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A3:G23"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetData>
+    <row customHeight="1" ht="15" r="3" s="2">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case Description</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Test Steps</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Test Data</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="2">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TC_Emp_001_1</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Check whether the Employee Creation is done successfully with valid data</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Naveen</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Employee should be created successfully</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">employee added successfully </t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="2">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6" s="2">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="2">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8" s="2">
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" s="2">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="2">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11" s="2">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="12" s="2">
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="13" s="2">
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="14" s="2">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>TC_Emp_002_1</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check whether the Employee Creation is unsuccessful by leaving employee_name empty </t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>Employee_name should be highlighted in red</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>Error while adding employee</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="15" s="2">
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="16" s="2">
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="17" s="2">
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="18" s="2">
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="19" s="2">
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="20" s="2">
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="21" s="2">
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="22" s="2">
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="23" s="2">
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A3:G11"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetData>
+    <row customHeight="1" ht="15" r="3" s="2">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case Description</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Test Steps</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Test Data</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="2">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TC_Dept_001_1</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Check whether the Department Creation is done successfully with valid data</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter dept_name</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Human Resource</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Department should be created successfully</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="2">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>2. Select parent_dept_name</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6" s="2">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>3. Select manager_name</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Keith Byrd</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="2">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>4. Click on Save</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8" s="2">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>TC_Dept_002_1</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check whether the Department Creation is unsuccessful by leaving dept_name empty </t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter dept_name</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     </t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Department_name field should be highlighted in red</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" s="2">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>2. Select parent_dept_name</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="2">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>3. Select manager_name</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Keith Byrd</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11" s="2">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>4. Click on Save</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A3:G11"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetData>
+    <row customHeight="1" ht="15" r="3" s="2">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case Description</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Test Steps</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Test Data</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="2">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TC_Dept_001_1</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Check whether the Department Creation is done successfully with valid data</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter dept_name</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Human Resource</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Department should be created successfully</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Error while adding department</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="2">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>2. Select parent_dept_name</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6" s="2">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>3. Select manager_name</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Keith Byrd</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="2">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>4. Click on Save</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8" s="2">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>TC_Dept_002_1</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check whether the Department Creation is unsuccessful by leaving dept_name empty </t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter dept_name</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     </t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Department_name field should be highlighted in red</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" s="2">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>2. Select parent_dept_name</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="2">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>3. Select manager_name</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Keith Byrd</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11" s="2">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>4. Click on Save</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A3:G11"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetData>
+    <row customHeight="1" ht="15" r="3" s="2">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case Description</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Test Steps</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Test Data</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="2">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TC_Dept_001_1</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Check whether the Department Creation is done successfully with valid data</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter dept_name</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Human Resource</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Department should be created successfully</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Error while adding department</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="2">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>2. Select parent_dept_name</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6" s="2">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>3. Select manager_name</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Keith Byrd</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="2">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>4. Click on Save</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8" s="2">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>TC_Dept_002_1</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check whether the Department Creation is unsuccessful by leaving dept_name empty </t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter dept_name</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     </t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Department_name field should be highlighted in red</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>Error while adding department</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" s="2">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>2. Select parent_dept_name</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="2">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>3. Select manager_name</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Keith Byrd</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11" s="2">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>4. Click on Save</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A3:G23"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetData>
+    <row customHeight="1" ht="15" r="3" s="2">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case Description</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Test Steps</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Test Data</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="2">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TC_Emp_001_1</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Check whether the Employee Creation is done successfully with valid data</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Naveen</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Employee should be created successfully</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">employee added successfully </t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="2">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6" s="2">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="2">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8" s="2">
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" s="2">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="2">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Management / Human Resource</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11" s="2">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="12" s="2">
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="13" s="2">
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="14" s="2">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>TC_Emp_002_1</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check whether the Employee Creation is unsuccessful by leaving employee_name empty </t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>Employee_name should be highlighted in red</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>Error while adding employee</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="15" s="2">
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="16" s="2">
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="17" s="2">
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="18" s="2">
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="19" s="2">
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="20" s="2">
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Management / Human Resource</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="21" s="2">
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="22" s="2">
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="23" s="2">
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A3:G11"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetData>
+    <row customHeight="1" ht="15" r="3" s="2">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case Description</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Test Steps</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Test Data</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="2">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TC_Dept_001_1</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Check whether the Department Creation is done successfully with valid data</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter dept_name</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Human Resource</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Department should be created successfully</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Error while adding department</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="2">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>2. Select parent_dept_name</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6" s="2">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>3. Select manager_name</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Keith Byrd</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="2">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>4. Click on Save</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8" s="2">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>TC_Dept_002_1</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check whether the Department Creation is unsuccessful by leaving dept_name empty </t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter dept_name</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     </t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Department_name field should be highlighted in red</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" s="2">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>2. Select parent_dept_name</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="2">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>3. Select manager_name</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Keith Byrd</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11" s="2">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>4. Click on Save</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A3:G11"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetData>
+    <row customHeight="1" ht="15" r="3" s="2">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case Description</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Test Steps</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Test Data</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="2">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TC_Dept_001_1</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Check whether the Department Creation is done successfully with valid data</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter dept_name</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Human Resource</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Department should be created successfully</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="2">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>2. Select parent_dept_name</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6" s="2">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>3. Select manager_name</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Keith Byrd</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="2">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>4. Click on Save</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8" s="2">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>TC_Dept_002_1</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check whether the Department Creation is unsuccessful by leaving dept_name empty </t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter dept_name</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     </t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Department_name field should be highlighted in red</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" s="2">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>2. Select parent_dept_name</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="2">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>3. Select manager_name</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Keith Byrd</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11" s="2">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>4. Click on Save</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A3:G11"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetData>
+    <row customHeight="1" ht="15" r="3" s="2">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case Description</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Test Steps</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Test Data</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="2">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TC_Dept_001_1</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Check whether the Department Creation is done successfully with valid data</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter dept_name</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Human Resource</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Department should be created successfully</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">department added successfully </t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="2">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>2. Select parent_dept_name</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6" s="2">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>3. Select manager_name</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Keith Byrd</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="2">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>4. Click on Save</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8" s="2">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>TC_Dept_002_1</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check whether the Department Creation is unsuccessful by leaving dept_name empty </t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter dept_name</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     </t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Department_name field should be highlighted in red</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>Error while adding department</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" s="2">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>2. Select parent_dept_name</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="2">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>3. Select manager_name</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Keith Byrd</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11" s="2">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>4. Click on Save</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A3:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,171 +3871,176 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Test Cases and Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>Test Cycle No:1</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Name of the Tester :  NaveenKumar N </t>
-        </is>
-      </c>
-    </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>Operating System : Windows 10</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>Browser: Chrome Version 89.0.4389.90/64 bit</t>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case Description</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Test Steps</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Test Data</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TC_Dept_001_1</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Check whether the Department Creation is done successfully with valid data</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter dept_name</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Human Resource</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Department should be created successfully</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">department added successfully </t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>2. Select parent_dept_name</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>Test Case ID</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>Test Case Description</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>Test Steps</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>Test Data</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>Expected Result</t>
-        </is>
-      </c>
-      <c r="F6" s="0" t="inlineStr">
-        <is>
-          <t>Actual Result</t>
-        </is>
-      </c>
-      <c r="G6" s="0" t="inlineStr">
-        <is>
-          <t>Pass/Fail</t>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>3. Select manager_name</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Keith Byrd</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>TC_Login_001_1</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>Check whether the login is successful with valid data</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. Enter Username </t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>nk371945@gmail.com</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It should redirects to the homepage </t>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>4. Click on Save</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>2. Enter Password</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>9788667359@Nk</t>
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>TC_Dept_002_1</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check whether the Department Creation is unsuccessful by leaving dept_name empty </t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter dept_name</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     </t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Department_name field should be highlighted in red</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>Error while adding department</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>3. Click Login</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>Click Login Button</t>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>2. Select parent_dept_name</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>TC_Login_001_2</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>Check whether the login is unsuccessful with invalid data</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. Enter Username </t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>Naveen</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It should display a error message saying "Wrong login/password" </t>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>3. Select manager_name</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Keith Byrd</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>2. Enter Password</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>98765</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>3. Click Login</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>Click Login Button</t>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>4. Click on Save</t>
         </is>
       </c>
     </row>
@@ -717,7 +4049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -732,293 +4064,313 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Test Case ID</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Test Case Description</t>
         </is>
       </c>
-      <c r="C3" s="0" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>Test Steps</t>
         </is>
       </c>
-      <c r="D3" s="0" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>Test Data</t>
         </is>
       </c>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>Expected Result</t>
         </is>
       </c>
-      <c r="F3" s="0" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>Actual Result</t>
         </is>
       </c>
-      <c r="G3" s="0" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>Pass/Fail</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>TC_Emp_001_1</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Check whether the Employee Creation is done successfully with valid data</t>
         </is>
       </c>
-      <c r="C4" s="0" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>1. Enter employee_name</t>
         </is>
       </c>
-      <c r="D4" s="0" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>Naveen</t>
         </is>
       </c>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>Employee should be created successfully</t>
         </is>
       </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">employee added successfully </t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="C5" s="0" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2. Select emp_type </t>
         </is>
       </c>
-      <c r="D5" s="0" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>Employee</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="0" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>3. Select work_address</t>
         </is>
       </c>
-      <c r="D6" s="0" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>Deco Addict</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="0" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>4. Enter work_location</t>
         </is>
       </c>
-      <c r="D7" s="0" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>Chennai</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="0" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>5. Enter email</t>
         </is>
       </c>
-      <c r="D8" s="0" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>nk@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="C9" s="0" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>6. Enter mobile</t>
         </is>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="3" t="n">
         <v>987213409</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" s="0" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">7. Select Department </t>
         </is>
       </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>Management / Human Resource</t>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="C11" s="0" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>8. Select Job_position</t>
         </is>
       </c>
-      <c r="D11" s="0" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>Trainee</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="C12" s="0" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>9. Select Manager</t>
         </is>
       </c>
-      <c r="D12" s="0" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>Beth Evans</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="C13" s="0" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>10. Click save</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>TC_Emp_002_1</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Check whether the Employee Creation is unsuccessful by leaving employee_name empty </t>
         </is>
       </c>
-      <c r="C14" s="0" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>1. Enter employee_name</t>
         </is>
       </c>
-      <c r="D14" s="0" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
       </c>
-      <c r="E14" s="0" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>Employee_name should be highlighted in red</t>
         </is>
       </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>Error while adding employee</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="C15" s="0" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2. Select emp_type </t>
         </is>
       </c>
-      <c r="D15" s="0" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>Employee</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="C16" s="0" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>3. Select work_address</t>
         </is>
       </c>
-      <c r="D16" s="0" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>Deco Addict</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="C17" s="0" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>4. Enter work_location</t>
         </is>
       </c>
-      <c r="D17" s="0" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>Chennai</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="C18" s="0" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>5. Enter email</t>
         </is>
       </c>
-      <c r="D18" s="0" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>nk@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="C19" s="0" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>6. Enter mobile</t>
         </is>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="3" t="n">
         <v>987213409</v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" s="0" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">7. Select Department </t>
         </is>
       </c>
-      <c r="D20" s="0" t="inlineStr">
-        <is>
-          <t>Management / Human Resource</t>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Management</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="C21" s="0" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>8. Select Job_position</t>
         </is>
       </c>
-      <c r="D21" s="0" t="inlineStr">
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>Trainee</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="C22" s="0" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>9. Select Manager</t>
         </is>
       </c>
-      <c r="D22" s="0" t="inlineStr">
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>Beth Evans</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="C23" s="0" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>10. Click save</t>
         </is>
@@ -1029,872 +4381,590 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetData/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A3:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
   <sheetData>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+    <row customHeight="1" ht="15" r="3" s="2">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Test Case ID</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Test Case Description</t>
         </is>
       </c>
-      <c r="C3" s="0" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>Test Steps</t>
         </is>
       </c>
-      <c r="D3" s="0" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>Test Data</t>
         </is>
       </c>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>Expected Result</t>
         </is>
       </c>
-      <c r="F3" s="0" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>Actual Result</t>
         </is>
       </c>
-      <c r="G3" s="0" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>Pass/Fail</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+    <row customHeight="1" ht="15" r="4" s="2">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>TC_Emp_001_1</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Check whether the Employee Creation is done successfully with valid data</t>
         </is>
       </c>
-      <c r="C4" s="0" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>1. Enter employee_name</t>
         </is>
       </c>
-      <c r="D4" s="0" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>Naveen</t>
         </is>
       </c>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>Employee should be created successfully</t>
         </is>
       </c>
-      <c r="F4" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">employee added successfully </t>
-        </is>
-      </c>
-      <c r="G4" s="0" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="0" t="inlineStr">
+    </row>
+    <row customHeight="1" ht="15" r="5" s="2">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2. Select emp_type </t>
         </is>
       </c>
-      <c r="D5" s="0" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>Employee</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="C6" s="0" t="inlineStr">
+    <row customHeight="1" ht="15" r="6" s="2">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>3. Select work_address</t>
         </is>
       </c>
-      <c r="D6" s="0" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>Deco Addict</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="C7" s="0" t="inlineStr">
+    <row customHeight="1" ht="15" r="7" s="2">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>4. Enter work_location</t>
         </is>
       </c>
-      <c r="D7" s="0" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>Chennai</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="C8" s="0" t="inlineStr">
+    <row customHeight="1" ht="15" r="8" s="2">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>5. Enter email</t>
         </is>
       </c>
-      <c r="D8" s="0" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>nk@gmail.com</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="C9" s="0" t="inlineStr">
+    <row customHeight="1" ht="15" r="9" s="2">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>6. Enter mobile</t>
         </is>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="3" t="n">
         <v>987213409</v>
       </c>
     </row>
-    <row r="10">
-      <c r="C10" s="0" t="inlineStr">
+    <row customHeight="1" ht="15" r="10" s="2">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">7. Select Department </t>
         </is>
       </c>
-      <c r="D10" s="0" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>Management / Human Resource</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="C11" s="0" t="inlineStr">
+    <row customHeight="1" ht="15" r="11" s="2">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>8. Select Job_position</t>
         </is>
       </c>
-      <c r="D11" s="0" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>Trainee</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="C12" s="0" t="inlineStr">
+    <row customHeight="1" ht="15" r="12" s="2">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>9. Select Manager</t>
         </is>
       </c>
-      <c r="D12" s="0" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>Beth Evans</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="C13" s="0" t="inlineStr">
+    <row customHeight="1" ht="15" r="13" s="2">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>10. Click save</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
+    <row customHeight="1" ht="15" r="14" s="2">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>TC_Emp_002_1</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Check whether the Employee Creation is unsuccessful by leaving employee_name empty </t>
         </is>
       </c>
-      <c r="C14" s="0" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>1. Enter employee_name</t>
         </is>
       </c>
-      <c r="D14" s="0" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">         </t>
         </is>
       </c>
-      <c r="E14" s="0" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>Employee_name should be highlighted in red</t>
         </is>
       </c>
-      <c r="F14" s="0" t="inlineStr">
-        <is>
-          <t>Error while adding employee</t>
-        </is>
-      </c>
-      <c r="G14" s="0" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" s="0" t="inlineStr">
+    </row>
+    <row customHeight="1" ht="15" r="15" s="2">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">2. Select emp_type </t>
         </is>
       </c>
-      <c r="D15" s="0" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>Employee</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="C16" s="0" t="inlineStr">
+    <row customHeight="1" ht="15" r="16" s="2">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>3. Select work_address</t>
         </is>
       </c>
-      <c r="D16" s="0" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>Deco Addict</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="C17" s="0" t="inlineStr">
+    <row customHeight="1" ht="15" r="17" s="2">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>4. Enter work_location</t>
         </is>
       </c>
-      <c r="D17" s="0" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>Chennai</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="C18" s="0" t="inlineStr">
+    <row customHeight="1" ht="15" r="18" s="2">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>5. Enter email</t>
         </is>
       </c>
-      <c r="D18" s="0" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>nk@gmail.com</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="C19" s="0" t="inlineStr">
+    <row customHeight="1" ht="15" r="19" s="2">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>6. Enter mobile</t>
         </is>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="3" t="n">
         <v>987213409</v>
       </c>
     </row>
-    <row r="20">
-      <c r="C20" s="0" t="inlineStr">
+    <row customHeight="1" ht="15" r="20" s="2">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">7. Select Department </t>
         </is>
       </c>
-      <c r="D20" s="0" t="inlineStr">
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>Management / Human Resource</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="C21" s="0" t="inlineStr">
+    <row customHeight="1" ht="15" r="21" s="2">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>8. Select Job_position</t>
         </is>
       </c>
-      <c r="D21" s="0" t="inlineStr">
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>Trainee</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="C22" s="0" t="inlineStr">
+    <row customHeight="1" ht="15" r="22" s="2">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>9. Select Manager</t>
         </is>
       </c>
-      <c r="D22" s="0" t="inlineStr">
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>Beth Evans</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="C23" s="0" t="inlineStr">
+    <row customHeight="1" ht="15" r="23" s="2">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>10. Click save</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A3:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetData>
+    <row customHeight="1" ht="15" r="3" s="2">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Test Case Description</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Test Steps</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Test Data</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="2">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>TC_Dept_001_1</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Check whether the Department Creation is done successfully with valid data</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter dept_name</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Human Resource</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Department should be created successfully</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="2">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>2. Select parent_dept_name</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6" s="2">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>3. Select manager_name</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Roger Scott</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="2">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>4. Click on Save</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8" s="2">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>TC_Dept_002_1</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check whether the Department Creation is unsuccessful by leaving dept_name empty </t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>1. Enter dept_name</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     </t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Department_name field should be highlighted in red</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" s="2">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>2. Select parent_dept_name</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="2">
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>3. Select manager_name</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Roger Scott</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11" s="2">
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>4. Click on Save</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A3:G23"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>Test Case ID</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>Test Case Description</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>Test Steps</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>Test Data</t>
-        </is>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>Expected Result</t>
-        </is>
-      </c>
-      <c r="F3" s="0" t="inlineStr">
-        <is>
-          <t>Actual Result</t>
-        </is>
-      </c>
-      <c r="G3" s="0" t="inlineStr">
-        <is>
-          <t>Pass/Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>TC_Emp_001_1</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>Check whether the Employee Creation is done successfully with valid data</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>1. Enter employee_name</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>Naveen</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>Employee should be created successfully</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2. Select emp_type </t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>3. Select work_address</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>Deco Addict</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>4. Enter work_location</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>Chennai</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>5. Enter email</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>nk@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>6. Enter mobile</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>987213409</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7. Select Department </t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>Management / Human Resource</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>8. Select Job_position</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>Trainee</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>9. Select Manager</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>Beth Evans</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>10. Click save</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>TC_Emp_002_1</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Check whether the Employee Creation is unsuccessful by leaving employee_name empty </t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>1. Enter employee_name</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">         </t>
-        </is>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>Employee_name should be highlighted in red</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2. Select emp_type </t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>3. Select work_address</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="inlineStr">
-        <is>
-          <t>Deco Addict</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>4. Enter work_location</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="inlineStr">
-        <is>
-          <t>Chennai</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>5. Enter email</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="inlineStr">
-        <is>
-          <t>nk@gmail.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>6. Enter mobile</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>987213409</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7. Select Department </t>
-        </is>
-      </c>
-      <c r="D20" s="0" t="inlineStr">
-        <is>
-          <t>Management / Human Resource</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" s="0" t="inlineStr">
-        <is>
-          <t>8. Select Job_position</t>
-        </is>
-      </c>
-      <c r="D21" s="0" t="inlineStr">
-        <is>
-          <t>Trainee</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" s="0" t="inlineStr">
-        <is>
-          <t>9. Select Manager</t>
-        </is>
-      </c>
-      <c r="D22" s="0" t="inlineStr">
-        <is>
-          <t>Beth Evans</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="C23" s="0" t="inlineStr">
-        <is>
-          <t>10. Click save</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetData/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A3:G11"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>Test Case ID</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>Test Case Description</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>Test Steps</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>Test Data</t>
-        </is>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>Expected Result</t>
-        </is>
-      </c>
-      <c r="F3" s="0" t="inlineStr">
-        <is>
-          <t>Actual Result</t>
-        </is>
-      </c>
-      <c r="G3" s="0" t="inlineStr">
-        <is>
-          <t>Pass/Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>TC_Dept_001_1</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>Check whether the Department Creation is done successfully with valid data</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>1. Enter dept_name</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>Human Resource</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>Department should be created successfully</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>2. Select parent_dept_name</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>Management</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>3. Select manager_name</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>Roger Scott</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>4. Click on Save</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>TC_Dept_002_1</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Check whether the Department Creation is unsuccessful by leaving dept_name empty </t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>1. Enter dept_name</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>Department_name field should be highlighted in red</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>2. Select parent_dept_name</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>Management</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>3. Select manager_name</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>Roger Scott</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>4. Click on Save</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetData/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.55078125" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Test_report_for_employee.xlsx
+++ b/Test_report_for_employee.xlsx
@@ -12,6 +12,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TR-employee-05-19-2021,00-42" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TR-employee-05-19-2021,00-49" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TR-employee-05-19-2021,00-55" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TR-employee-05-20-2021,03-46" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TR-employee-05-20-2021,03-56" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TR-employee-05-20-2021,04-18" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
@@ -1703,7 +1706,993 @@
       </c>
     </row>
     <row r="23">
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A3:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Test Case Description</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Test Steps</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>Test Data</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>TC_Emp_001_1</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Check whether the Employee Creation is done successfully with valid data</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>Naveen</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>Employee should be created successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>TC_Emp_002_1</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check whether the Employee Creation is unsuccessful by leaving employee_name empty </t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>Employee_name should be highlighted in red</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>Error while adding employee</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A3:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Test Case Description</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Test Steps</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>Test Data</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>TC_Emp_001_1</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Check whether the Employee Creation is done successfully with valid data</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>Naveen</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>Employee should be created successfully</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">employee added successfully </t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>TC_Emp_002_1</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check whether the Employee Creation is unsuccessful by leaving employee_name empty </t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>Employee_name should be highlighted in red</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>Error while adding employee</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A3:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Test Case ID</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Test Case Description</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Test Steps</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>Test Data</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>Expected Result</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>Pass/Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>TC_Emp_001_1</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Check whether the Employee Creation is done successfully with valid data</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>Naveen</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>Employee should be created successfully</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">employee added successfully </t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>10. Click save</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>TC_Emp_002_1</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Check whether the Employee Creation is unsuccessful by leaving employee_name empty </t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>1. Enter employee_name</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         </t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>Employee_name should be highlighted in red</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>Error while adding employee</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Select emp_type </t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>3. Select work_address</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>Deco Addict</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>4. Enter work_location</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>5. Enter email</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>nk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>6. Enter mobile</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>987213409</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7. Select Department </t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>8. Select Job_position</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>9. Select Manager</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>Beth Evans</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="0" t="inlineStr">
         <is>
           <t>10. Click save</t>
         </is>
